--- a/va_facility_data_2025-02-20/International Plaza VA Clinic - Facility Data.xlsx"; filename*=UTF-8''International%20Plaza%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/International Plaza VA Clinic - Facility Data.xlsx"; filename*=UTF-8''International%20Plaza%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R333250b90ceb4de689123f5d158b0527"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2ed3147c5ef4449b8b9d7708eb87f335"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdbf544b16ec246c98ed761b2cf52b2dc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf31824178b0d4698b75c7a6ddf2ba213"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R52ec26c7f71a4f529eed0a5523040a92"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R487cf69b88de40df9c8e2fcb2f9becd0"/>
   </x:sheets>
 </x:workbook>
 </file>
